--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,243 +537,243 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9601064982978</v>
+        <v>2.456931</v>
       </c>
       <c r="H2">
-        <v>1.9601064982978</v>
+        <v>7.370793</v>
       </c>
       <c r="I2">
-        <v>0.01133524126519337</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="J2">
-        <v>0.01133524126519337</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.551617489267804</v>
+        <v>0.685941</v>
       </c>
       <c r="N2">
-        <v>0.551617489267804</v>
+        <v>2.057823</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2488083256637031</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2488083256637031</v>
       </c>
       <c r="Q2">
-        <v>1.081229025288539</v>
+        <v>1.685309707071</v>
       </c>
       <c r="R2">
-        <v>1.081229025288539</v>
+        <v>15.167787363639</v>
       </c>
       <c r="S2">
-        <v>0.01133524126519337</v>
+        <v>0.003055259986915953</v>
       </c>
       <c r="T2">
-        <v>0.01133524126519337</v>
+        <v>0.003055259986915954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.55475726679933</v>
+        <v>2.456931</v>
       </c>
       <c r="H3">
-        <v>3.55475726679933</v>
+        <v>7.370793</v>
       </c>
       <c r="I3">
-        <v>0.02055706222767079</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="J3">
-        <v>0.02055706222767079</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.551617489267804</v>
+        <v>0.2049633333333334</v>
       </c>
       <c r="N3">
-        <v>0.551617489267804</v>
+        <v>0.61489</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.07434543756550219</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07434543756550219</v>
       </c>
       <c r="Q3">
-        <v>1.960866278468328</v>
+        <v>0.50358076753</v>
       </c>
       <c r="R3">
-        <v>1.960866278468328</v>
+        <v>4.53222690777</v>
       </c>
       <c r="S3">
-        <v>0.02055706222767079</v>
+        <v>0.0009129302244919754</v>
       </c>
       <c r="T3">
-        <v>0.02055706222767079</v>
+        <v>0.0009129302244919757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.6372533477182</v>
+        <v>2.456931</v>
       </c>
       <c r="H4">
-        <v>45.6372533477182</v>
+        <v>7.370793</v>
       </c>
       <c r="I4">
-        <v>0.2639189645187048</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="J4">
-        <v>0.2639189645187048</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.551617489267804</v>
+        <v>0.07768266666666666</v>
       </c>
       <c r="N4">
-        <v>0.551617489267804</v>
+        <v>0.233048</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0281774878982666</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.02817748789826661</v>
       </c>
       <c r="Q4">
-        <v>25.17430710874699</v>
+        <v>0.190860951896</v>
       </c>
       <c r="R4">
-        <v>25.17430710874699</v>
+        <v>1.717748567064</v>
       </c>
       <c r="S4">
-        <v>0.2639189645187048</v>
+        <v>0.0003460075183486573</v>
       </c>
       <c r="T4">
-        <v>0.2639189645187048</v>
+        <v>0.0003460075183486574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.502203950945</v>
+        <v>2.456931</v>
       </c>
       <c r="H5">
-        <v>114.502203950945</v>
+        <v>7.370793</v>
       </c>
       <c r="I5">
-        <v>0.6621630550725041</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="J5">
-        <v>0.6621630550725041</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.551617489267804</v>
+        <v>1.471239</v>
       </c>
       <c r="N5">
-        <v>0.551617489267804</v>
+        <v>4.413717</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5336559736786995</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5336559736786997</v>
       </c>
       <c r="Q5">
-        <v>63.16141825905031</v>
+        <v>3.614732707509</v>
       </c>
       <c r="R5">
-        <v>63.16141825905031</v>
+        <v>32.532594367581</v>
       </c>
       <c r="S5">
-        <v>0.6621630550725041</v>
+        <v>0.006553067461910338</v>
       </c>
       <c r="T5">
-        <v>0.6621630550725041</v>
+        <v>0.006553067461910341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.68931784281898</v>
+        <v>2.456931</v>
       </c>
       <c r="H6">
-        <v>6.68931784281898</v>
+        <v>7.370793</v>
       </c>
       <c r="I6">
-        <v>0.0386841387005064</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="J6">
-        <v>0.0386841387005064</v>
+        <v>0.01227957295547069</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.551617489267804</v>
+        <v>0.3170793333333333</v>
       </c>
       <c r="N6">
-        <v>0.551617489267804</v>
+        <v>0.951238</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1150127751938284</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1150127751938284</v>
       </c>
       <c r="Q6">
-        <v>3.689944713370128</v>
+        <v>0.7790420435259999</v>
       </c>
       <c r="R6">
-        <v>3.689944713370128</v>
+        <v>7.011378391734</v>
       </c>
       <c r="S6">
-        <v>0.0386841387005064</v>
+        <v>0.001412307763803766</v>
       </c>
       <c r="T6">
-        <v>0.0386841387005064</v>
+        <v>0.001412307763803767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,1540 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.577823675484392</v>
+        <v>3.60916</v>
       </c>
       <c r="H7">
-        <v>0.577823675484392</v>
+        <v>10.82748</v>
       </c>
       <c r="I7">
-        <v>0.003341538215420616</v>
+        <v>0.0180383346247683</v>
       </c>
       <c r="J7">
-        <v>0.003341538215420616</v>
+        <v>0.0180383346247683</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.551617489267804</v>
+        <v>0.685941</v>
       </c>
       <c r="N7">
-        <v>0.551617489267804</v>
+        <v>2.057823</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.2488083256637031</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.2488083256637031</v>
       </c>
       <c r="Q7">
-        <v>0.3187376451101946</v>
+        <v>2.47567081956</v>
       </c>
       <c r="R7">
-        <v>0.3187376451101946</v>
+        <v>22.28103737604</v>
       </c>
       <c r="S7">
-        <v>0.003341538215420616</v>
+        <v>0.004488087835750203</v>
       </c>
       <c r="T7">
-        <v>0.003341538215420616</v>
+        <v>0.004488087835750203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.60916</v>
+      </c>
+      <c r="H8">
+        <v>10.82748</v>
+      </c>
+      <c r="I8">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="J8">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.2049633333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.61489</v>
+      </c>
+      <c r="O8">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="P8">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="Q8">
+        <v>0.7397454641333333</v>
+      </c>
+      <c r="R8">
+        <v>6.6577091772</v>
+      </c>
+      <c r="S8">
+        <v>0.001341067880631348</v>
+      </c>
+      <c r="T8">
+        <v>0.001341067880631348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.60916</v>
+      </c>
+      <c r="H9">
+        <v>10.82748</v>
+      </c>
+      <c r="I9">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="J9">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07768266666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.233048</v>
+      </c>
+      <c r="O9">
+        <v>0.0281774878982666</v>
+      </c>
+      <c r="P9">
+        <v>0.02817748789826661</v>
+      </c>
+      <c r="Q9">
+        <v>0.2803691732266667</v>
+      </c>
+      <c r="R9">
+        <v>2.52332255904</v>
+      </c>
+      <c r="S9">
+        <v>0.0005082749555942922</v>
+      </c>
+      <c r="T9">
+        <v>0.0005082749555942924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.60916</v>
+      </c>
+      <c r="H10">
+        <v>10.82748</v>
+      </c>
+      <c r="I10">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="J10">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.471239</v>
+      </c>
+      <c r="N10">
+        <v>4.413717</v>
+      </c>
+      <c r="O10">
+        <v>0.5336559736786995</v>
+      </c>
+      <c r="P10">
+        <v>0.5336559736786997</v>
+      </c>
+      <c r="Q10">
+        <v>5.309936949239999</v>
+      </c>
+      <c r="R10">
+        <v>47.78943254316</v>
+      </c>
+      <c r="S10">
+        <v>0.009626265027722927</v>
+      </c>
+      <c r="T10">
+        <v>0.00962626502772293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.60916</v>
+      </c>
+      <c r="H11">
+        <v>10.82748</v>
+      </c>
+      <c r="I11">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="J11">
+        <v>0.0180383346247683</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.3170793333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.951238</v>
+      </c>
+      <c r="O11">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="P11">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="Q11">
+        <v>1.144390046693333</v>
+      </c>
+      <c r="R11">
+        <v>10.29951042024</v>
+      </c>
+      <c r="S11">
+        <v>0.002074638925069528</v>
+      </c>
+      <c r="T11">
+        <v>0.002074638925069529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>69.52137133333333</v>
+      </c>
+      <c r="H12">
+        <v>208.564114</v>
+      </c>
+      <c r="I12">
+        <v>0.3474630550276078</v>
+      </c>
+      <c r="J12">
+        <v>0.3474630550276079</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.685941</v>
+      </c>
+      <c r="N12">
+        <v>2.057823</v>
+      </c>
+      <c r="O12">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="P12">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="Q12">
+        <v>47.687558973758</v>
+      </c>
+      <c r="R12">
+        <v>429.188030763822</v>
+      </c>
+      <c r="S12">
+        <v>0.08645170095141423</v>
+      </c>
+      <c r="T12">
+        <v>0.08645170095141426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>69.52137133333333</v>
+      </c>
+      <c r="H13">
+        <v>208.564114</v>
+      </c>
+      <c r="I13">
+        <v>0.3474630550276078</v>
+      </c>
+      <c r="J13">
+        <v>0.3474630550276079</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2049633333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.61489</v>
+      </c>
+      <c r="O13">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="P13">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="Q13">
+        <v>14.24933200638445</v>
+      </c>
+      <c r="R13">
+        <v>128.24398805746</v>
+      </c>
+      <c r="S13">
+        <v>0.02583229286387366</v>
+      </c>
+      <c r="T13">
+        <v>0.02583229286387367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>69.52137133333333</v>
+      </c>
+      <c r="H14">
+        <v>208.564114</v>
+      </c>
+      <c r="I14">
+        <v>0.3474630550276078</v>
+      </c>
+      <c r="J14">
+        <v>0.3474630550276079</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.07768266666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.233048</v>
+      </c>
+      <c r="O14">
+        <v>0.0281774878982666</v>
+      </c>
+      <c r="P14">
+        <v>0.02817748789826661</v>
+      </c>
+      <c r="Q14">
+        <v>5.400605515496888</v>
+      </c>
+      <c r="R14">
+        <v>48.605449639472</v>
+      </c>
+      <c r="S14">
+        <v>0.009790636028135161</v>
+      </c>
+      <c r="T14">
+        <v>0.009790636028135166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>69.52137133333333</v>
+      </c>
+      <c r="H15">
+        <v>208.564114</v>
+      </c>
+      <c r="I15">
+        <v>0.3474630550276078</v>
+      </c>
+      <c r="J15">
+        <v>0.3474630550276079</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.471239</v>
+      </c>
+      <c r="N15">
+        <v>4.413717</v>
+      </c>
+      <c r="O15">
+        <v>0.5336559736786995</v>
+      </c>
+      <c r="P15">
+        <v>0.5336559736786997</v>
+      </c>
+      <c r="Q15">
+        <v>102.282552839082</v>
+      </c>
+      <c r="R15">
+        <v>920.542975551738</v>
+      </c>
+      <c r="S15">
+        <v>0.1854257349481336</v>
+      </c>
+      <c r="T15">
+        <v>0.1854257349481337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>69.52137133333333</v>
+      </c>
+      <c r="H16">
+        <v>208.564114</v>
+      </c>
+      <c r="I16">
+        <v>0.3474630550276078</v>
+      </c>
+      <c r="J16">
+        <v>0.3474630550276079</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.3170793333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.951238</v>
+      </c>
+      <c r="O16">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="P16">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="Q16">
+        <v>22.04379007479244</v>
+      </c>
+      <c r="R16">
+        <v>198.394110673132</v>
+      </c>
+      <c r="S16">
+        <v>0.03996269023605109</v>
+      </c>
+      <c r="T16">
+        <v>0.0399626902360511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>117.1484146666667</v>
+      </c>
+      <c r="H17">
+        <v>351.445244</v>
+      </c>
+      <c r="I17">
+        <v>0.5854997574278912</v>
+      </c>
+      <c r="J17">
+        <v>0.5854997574278914</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.685941</v>
+      </c>
+      <c r="N17">
+        <v>2.057823</v>
+      </c>
+      <c r="O17">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="P17">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="Q17">
+        <v>80.356900704868</v>
+      </c>
+      <c r="R17">
+        <v>723.212106343812</v>
+      </c>
+      <c r="S17">
+        <v>0.1456772143221379</v>
+      </c>
+      <c r="T17">
+        <v>0.145677214322138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>117.1484146666667</v>
+      </c>
+      <c r="H18">
+        <v>351.445244</v>
+      </c>
+      <c r="I18">
+        <v>0.5854997574278912</v>
+      </c>
+      <c r="J18">
+        <v>0.5854997574278914</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2049633333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.61489</v>
+      </c>
+      <c r="O18">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="P18">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="Q18">
+        <v>24.01112956479556</v>
+      </c>
+      <c r="R18">
+        <v>216.10016608316</v>
+      </c>
+      <c r="S18">
+        <v>0.04352923566047196</v>
+      </c>
+      <c r="T18">
+        <v>0.04352923566047198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>117.1484146666667</v>
+      </c>
+      <c r="H19">
+        <v>351.445244</v>
+      </c>
+      <c r="I19">
+        <v>0.5854997574278912</v>
+      </c>
+      <c r="J19">
+        <v>0.5854997574278914</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07768266666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.233048</v>
+      </c>
+      <c r="O19">
+        <v>0.0281774878982666</v>
+      </c>
+      <c r="P19">
+        <v>0.02817748789826661</v>
+      </c>
+      <c r="Q19">
+        <v>9.100401247079111</v>
+      </c>
+      <c r="R19">
+        <v>81.90361122371201</v>
+      </c>
+      <c r="S19">
+        <v>0.01649791232936244</v>
+      </c>
+      <c r="T19">
+        <v>0.01649791232936244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>117.1484146666667</v>
+      </c>
+      <c r="H20">
+        <v>351.445244</v>
+      </c>
+      <c r="I20">
+        <v>0.5854997574278912</v>
+      </c>
+      <c r="J20">
+        <v>0.5854997574278914</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>1.471239</v>
+      </c>
+      <c r="N20">
+        <v>4.413717</v>
+      </c>
+      <c r="O20">
+        <v>0.5336559736786995</v>
+      </c>
+      <c r="P20">
+        <v>0.5336559736786997</v>
+      </c>
+      <c r="Q20">
+        <v>172.353316445772</v>
+      </c>
+      <c r="R20">
+        <v>1551.179848011948</v>
+      </c>
+      <c r="S20">
+        <v>0.3124554431388237</v>
+      </c>
+      <c r="T20">
+        <v>0.3124554431388238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>117.1484146666667</v>
+      </c>
+      <c r="H21">
+        <v>351.445244</v>
+      </c>
+      <c r="I21">
+        <v>0.5854997574278912</v>
+      </c>
+      <c r="J21">
+        <v>0.5854997574278914</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.3170793333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.951238</v>
+      </c>
+      <c r="O21">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="P21">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="Q21">
+        <v>37.14534122356356</v>
+      </c>
+      <c r="R21">
+        <v>334.308071012072</v>
+      </c>
+      <c r="S21">
+        <v>0.06733995197709514</v>
+      </c>
+      <c r="T21">
+        <v>0.06733995197709515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.741056666666666</v>
+      </c>
+      <c r="H22">
+        <v>20.22317</v>
+      </c>
+      <c r="I22">
+        <v>0.03369133977930003</v>
+      </c>
+      <c r="J22">
+        <v>0.03369133977930004</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.685941</v>
+      </c>
+      <c r="N22">
+        <v>2.057823</v>
+      </c>
+      <c r="O22">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="P22">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="Q22">
+        <v>4.62396715099</v>
+      </c>
+      <c r="R22">
+        <v>41.61570435891</v>
+      </c>
+      <c r="S22">
+        <v>0.008382685839854558</v>
+      </c>
+      <c r="T22">
+        <v>0.00838268583985456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.741056666666666</v>
+      </c>
+      <c r="H23">
+        <v>20.22317</v>
+      </c>
+      <c r="I23">
+        <v>0.03369133977930003</v>
+      </c>
+      <c r="J23">
+        <v>0.03369133977930004</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2049633333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.61489</v>
+      </c>
+      <c r="O23">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="P23">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="Q23">
+        <v>1.381669444588889</v>
+      </c>
+      <c r="R23">
+        <v>12.4350250013</v>
+      </c>
+      <c r="S23">
+        <v>0.002504797398060071</v>
+      </c>
+      <c r="T23">
+        <v>0.002504797398060071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.741056666666666</v>
+      </c>
+      <c r="H24">
+        <v>20.22317</v>
+      </c>
+      <c r="I24">
+        <v>0.03369133977930003</v>
+      </c>
+      <c r="J24">
+        <v>0.03369133977930004</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.07768266666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.233048</v>
+      </c>
+      <c r="O24">
+        <v>0.0281774878982666</v>
+      </c>
+      <c r="P24">
+        <v>0.02817748789826661</v>
+      </c>
+      <c r="Q24">
+        <v>0.5236632580177777</v>
+      </c>
+      <c r="R24">
+        <v>4.71296932216</v>
+      </c>
+      <c r="S24">
+        <v>0.000949337318907615</v>
+      </c>
+      <c r="T24">
+        <v>0.0009493373189076153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.741056666666666</v>
+      </c>
+      <c r="H25">
+        <v>20.22317</v>
+      </c>
+      <c r="I25">
+        <v>0.03369133977930003</v>
+      </c>
+      <c r="J25">
+        <v>0.03369133977930004</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.471239</v>
+      </c>
+      <c r="N25">
+        <v>4.413717</v>
+      </c>
+      <c r="O25">
+        <v>0.5336559736786995</v>
+      </c>
+      <c r="P25">
+        <v>0.5336559736786997</v>
+      </c>
+      <c r="Q25">
+        <v>9.917705469209999</v>
+      </c>
+      <c r="R25">
+        <v>89.25934922288999</v>
+      </c>
+      <c r="S25">
+        <v>0.01797958473446226</v>
+      </c>
+      <c r="T25">
+        <v>0.01797958473446227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.741056666666666</v>
+      </c>
+      <c r="H26">
+        <v>20.22317</v>
+      </c>
+      <c r="I26">
+        <v>0.03369133977930003</v>
+      </c>
+      <c r="J26">
+        <v>0.03369133977930004</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.3170793333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.951238</v>
+      </c>
+      <c r="O26">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="P26">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="Q26">
+        <v>2.137449753828889</v>
+      </c>
+      <c r="R26">
+        <v>19.23704778446</v>
+      </c>
+      <c r="S26">
+        <v>0.003874934488015524</v>
+      </c>
+      <c r="T26">
+        <v>0.003874934488015525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6058386666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.817516</v>
+      </c>
+      <c r="I27">
+        <v>0.003027940184961817</v>
+      </c>
+      <c r="J27">
+        <v>0.003027940184961818</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.685941</v>
+      </c>
+      <c r="N27">
+        <v>2.057823</v>
+      </c>
+      <c r="O27">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="P27">
+        <v>0.2488083256637031</v>
+      </c>
+      <c r="Q27">
+        <v>0.415569580852</v>
+      </c>
+      <c r="R27">
+        <v>3.740126227668</v>
+      </c>
+      <c r="S27">
+        <v>0.0007533767276301933</v>
+      </c>
+      <c r="T27">
+        <v>0.0007533767276301936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6058386666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.817516</v>
+      </c>
+      <c r="I28">
+        <v>0.003027940184961817</v>
+      </c>
+      <c r="J28">
+        <v>0.003027940184961818</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.2049633333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.61489</v>
+      </c>
+      <c r="O28">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="P28">
+        <v>0.07434543756550219</v>
+      </c>
+      <c r="Q28">
+        <v>0.1241747125822222</v>
+      </c>
+      <c r="R28">
+        <v>1.11757241324</v>
+      </c>
+      <c r="S28">
+        <v>0.0002251135379731539</v>
+      </c>
+      <c r="T28">
+        <v>0.000225113537973154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6058386666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.817516</v>
+      </c>
+      <c r="I29">
+        <v>0.003027940184961817</v>
+      </c>
+      <c r="J29">
+        <v>0.003027940184961818</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.07768266666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.233048</v>
+      </c>
+      <c r="O29">
+        <v>0.0281774878982666</v>
+      </c>
+      <c r="P29">
+        <v>0.02817748789826661</v>
+      </c>
+      <c r="Q29">
+        <v>0.04706316319644444</v>
+      </c>
+      <c r="R29">
+        <v>0.423568468768</v>
+      </c>
+      <c r="S29">
+        <v>8.531974791843675E-05</v>
+      </c>
+      <c r="T29">
+        <v>8.531974791843679E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6058386666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.817516</v>
+      </c>
+      <c r="I30">
+        <v>0.003027940184961817</v>
+      </c>
+      <c r="J30">
+        <v>0.003027940184961818</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>1.471239</v>
+      </c>
+      <c r="N30">
+        <v>4.413717</v>
+      </c>
+      <c r="O30">
+        <v>0.5336559736786995</v>
+      </c>
+      <c r="P30">
+        <v>0.5336559736786997</v>
+      </c>
+      <c r="Q30">
+        <v>0.8913334741079999</v>
+      </c>
+      <c r="R30">
+        <v>8.022001266972</v>
+      </c>
+      <c r="S30">
+        <v>0.00161587836764666</v>
+      </c>
+      <c r="T30">
+        <v>0.001615878367646661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6058386666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.817516</v>
+      </c>
+      <c r="I31">
+        <v>0.003027940184961817</v>
+      </c>
+      <c r="J31">
+        <v>0.003027940184961818</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.3170793333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.951238</v>
+      </c>
+      <c r="O31">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="P31">
+        <v>0.1150127751938284</v>
+      </c>
+      <c r="Q31">
+        <v>0.1920989205342222</v>
+      </c>
+      <c r="R31">
+        <v>1.728890284808</v>
+      </c>
+      <c r="S31">
+        <v>0.0003482518037933728</v>
+      </c>
+      <c r="T31">
+        <v>0.0003482518037933729</v>
       </c>
     </row>
   </sheetData>
